--- a/results/mp/logistic/corona/confidence/168/desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -73,30 +76,33 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -106,9 +112,6 @@
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -118,52 +121,52 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -640,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,16 +714,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8356164383561644</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5925925925925926</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,16 +914,16 @@
         <v>255</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2550335570469799</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1361111111111111</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>311</v>
+        <v>116</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,21 +1035,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>295</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.89375</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L13">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8936170212765957</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,12 +1163,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>0.8658536585365854</v>
@@ -1167,7 +1194,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
         <v>0.8620689655172413</v>
@@ -1193,7 +1220,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.8611111111111112</v>
@@ -1219,16 +1246,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8461538461538461</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7936507936507936</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.76</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7529411764705882</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L24">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7428571428571429</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7389830508474576</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7112970711297071</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L27">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="M27">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6966292134831461</v>
+        <v>0.65</v>
       </c>
       <c r="L28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L29">
         <v>44</v>
       </c>
-      <c r="K29">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L29">
-        <v>63</v>
-      </c>
       <c r="M29">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6461538461538462</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1557,16 +1584,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5490196078431373</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4871794871794872</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L33">
         <v>38</v>
@@ -1604,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1630,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
